--- a/data/AMC_theatres_screens_by_market_2024.xlsx
+++ b/data/AMC_theatres_screens_by_market_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twylazhang/Desktop/Columbia DS/2025Fall/STATGR5702_EDA/Final Project/stocks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1917F03A-CB11-B54A-8B21-DA0D9FD3758D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DED74D-8B9F-7E44-BA3A-301C5F83A042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{E9901A96-C148-8448-816C-71A676F68BF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>U.S. Markets</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>Screens</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
   </si>
 </sst>
 </file>
@@ -615,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB317C43-F5E9-8F41-A639-6178D1C5E6E2}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1129,27 +1138,63 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B47" s="3">
         <v>544</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C47" s="4">
         <v>7185</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
